--- a/Teams/Manchester Utd_stats.xlsx
+++ b/Teams/Manchester Utd_stats.xlsx
@@ -8,15 +8,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Matches" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="StandardStats" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ShootingStats" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PassingStats" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PassTypes" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GoalShotCreation" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DefensiveActions" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Standard Stats" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Shooting Stats" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Passing Stats" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Pass Types" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Goal &amp; Shot Creation" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Defensive Actions" sheetId="7" state="visible" r:id="rId7"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Possession" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PlayingTime" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MiscStats" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Playing Time" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Miscellaneous Stats" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5681,7 +5681,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>28-352</t>
+          <t>28-353</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -5762,7 +5762,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>26-002</t>
+          <t>26-003</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -5843,7 +5843,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>30-193</t>
+          <t>30-194</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -5924,7 +5924,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>27-126</t>
+          <t>27-127</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -6005,7 +6005,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>25-220</t>
+          <t>25-221</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -6086,7 +6086,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>27-061</t>
+          <t>27-062</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -6167,7 +6167,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>20-262</t>
+          <t>20-263</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -6248,7 +6248,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>22-252</t>
+          <t>22-253</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -6329,7 +6329,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>22-044</t>
+          <t>22-045</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -6410,7 +6410,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>23-343</t>
+          <t>23-344</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -6491,7 +6491,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>32-015</t>
+          <t>32-016</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -6572,7 +6572,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>19-335</t>
+          <t>19-336</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -6653,7 +6653,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>33-025</t>
+          <t>33-026</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -6734,7 +6734,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>23-302</t>
+          <t>23-303</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -6815,7 +6815,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>27-140</t>
+          <t>27-141</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -6896,7 +6896,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>33-034</t>
+          <t>33-035</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -6977,7 +6977,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>19-127</t>
+          <t>19-128</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -7058,7 +7058,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>26-069</t>
+          <t>26-070</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -7139,7 +7139,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>37-076</t>
+          <t>37-077</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -7220,7 +7220,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>20-145</t>
+          <t>20-146</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -7301,7 +7301,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>30-246</t>
+          <t>30-247</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -7382,7 +7382,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>25-215</t>
+          <t>25-216</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -7461,7 +7461,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>18-179</t>
+          <t>18-180</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -7542,7 +7542,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>21-076</t>
+          <t>21-077</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -7623,7 +7623,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>25-024</t>
+          <t>25-025</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -7704,7 +7704,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>29-251</t>
+          <t>29-252</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -7783,7 +7783,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>17-111</t>
+          <t>17-112</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -7864,7 +7864,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>18-004</t>
+          <t>18-005</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -7945,7 +7945,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>28-102</t>
+          <t>28-103</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -8190,10 +8190,14 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 4_level_0</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>Playing Time</t>
         </is>
       </c>
-      <c r="G1" s="1" t="n"/>
       <c r="H1" s="1" t="n"/>
       <c r="I1" s="1" t="n"/>
       <c r="J1" s="1" t="inlineStr">
@@ -8437,7 +8441,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>28-352</t>
+          <t>28-353</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -8554,7 +8558,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>26-002</t>
+          <t>26-003</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -8671,7 +8675,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>30-193</t>
+          <t>30-194</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -8788,7 +8792,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>27-126</t>
+          <t>27-127</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -8905,7 +8909,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>25-220</t>
+          <t>25-221</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -9022,7 +9026,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>27-061</t>
+          <t>27-062</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -9139,7 +9143,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>20-262</t>
+          <t>20-263</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -9256,7 +9260,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>22-252</t>
+          <t>22-253</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -9373,7 +9377,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>22-044</t>
+          <t>22-045</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -9490,7 +9494,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>23-343</t>
+          <t>23-344</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -9607,7 +9611,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>32-015</t>
+          <t>32-016</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -9724,7 +9728,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>19-335</t>
+          <t>19-336</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -9841,7 +9845,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>33-025</t>
+          <t>33-026</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -9958,7 +9962,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>23-302</t>
+          <t>23-303</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -10075,7 +10079,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>27-140</t>
+          <t>27-141</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -10192,7 +10196,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>33-034</t>
+          <t>33-035</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -10309,7 +10313,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>19-127</t>
+          <t>19-128</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -10426,7 +10430,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>26-069</t>
+          <t>26-070</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -10543,7 +10547,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>37-076</t>
+          <t>37-077</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -10660,7 +10664,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>20-145</t>
+          <t>20-146</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -10777,7 +10781,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>30-246</t>
+          <t>30-247</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -10894,7 +10898,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>25-215</t>
+          <t>25-216</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -11011,7 +11015,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>18-179</t>
+          <t>18-180</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -11128,7 +11132,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>21-076</t>
+          <t>21-077</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -11245,7 +11249,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>25-024</t>
+          <t>25-025</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -11362,7 +11366,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>29-251</t>
+          <t>29-252</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -11479,7 +11483,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>17-111</t>
+          <t>17-112</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -11596,7 +11600,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>18-004</t>
+          <t>18-005</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -11713,7 +11717,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>28-102</t>
+          <t>28-103</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -11830,7 +11834,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>26-340</t>
+          <t>26-341</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -11893,7 +11897,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>17-315</t>
+          <t>17-316</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -11956,7 +11960,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>18-001</t>
+          <t>18-002</t>
         </is>
       </c>
       <c r="F35" t="n">
@@ -12019,7 +12023,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>20-025</t>
+          <t>20-026</t>
         </is>
       </c>
       <c r="F36" t="n">
@@ -12082,7 +12086,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>22-020</t>
+          <t>22-021</t>
         </is>
       </c>
       <c r="F37" t="n">
@@ -12145,7 +12149,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>19-029</t>
+          <t>19-030</t>
         </is>
       </c>
       <c r="F38" t="n">
@@ -12208,7 +12212,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>38-339</t>
+          <t>38-340</t>
         </is>
       </c>
       <c r="F39" t="n">
@@ -12271,7 +12275,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>19-045</t>
+          <t>19-046</t>
         </is>
       </c>
       <c r="F40" t="n">
@@ -12334,7 +12338,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>17-042</t>
+          <t>17-043</t>
         </is>
       </c>
       <c r="F41" t="n">
@@ -12397,7 +12401,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>22-120</t>
+          <t>22-121</t>
         </is>
       </c>
       <c r="F42" t="n">
@@ -12460,7 +12464,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>19-111</t>
+          <t>19-112</t>
         </is>
       </c>
       <c r="F43" t="n">
@@ -12523,7 +12527,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>19-059</t>
+          <t>19-060</t>
         </is>
       </c>
       <c r="F44" t="n">
@@ -12778,9 +12782,9 @@
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="Y1:AH1"/>
-    <mergeCell ref="F1:I1"/>
     <mergeCell ref="R1:U1"/>
     <mergeCell ref="J1:Q1"/>
+    <mergeCell ref="G1:I1"/>
     <mergeCell ref="V1:X1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -12998,7 +13002,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>28-352</t>
+          <t>28-353</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -13072,7 +13076,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>26-002</t>
+          <t>26-003</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -13156,7 +13160,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>30-193</t>
+          <t>30-194</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -13240,7 +13244,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>27-126</t>
+          <t>27-127</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -13324,7 +13328,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>25-220</t>
+          <t>25-221</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -13408,7 +13412,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>27-061</t>
+          <t>27-062</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -13492,7 +13496,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>20-262</t>
+          <t>20-263</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -13576,7 +13580,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>22-252</t>
+          <t>22-253</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -13660,7 +13664,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>22-044</t>
+          <t>22-045</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -13744,7 +13748,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>23-343</t>
+          <t>23-344</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -13828,7 +13832,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>32-015</t>
+          <t>32-016</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -13912,7 +13916,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>19-335</t>
+          <t>19-336</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -13996,7 +14000,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>33-025</t>
+          <t>33-026</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -14080,7 +14084,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>23-302</t>
+          <t>23-303</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -14164,7 +14168,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>27-140</t>
+          <t>27-141</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -14248,7 +14252,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>33-034</t>
+          <t>33-035</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -14330,7 +14334,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>19-127</t>
+          <t>19-128</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -14414,7 +14418,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>26-069</t>
+          <t>26-070</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -14498,7 +14502,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>37-076</t>
+          <t>37-077</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -14580,7 +14584,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>20-145</t>
+          <t>20-146</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -14664,7 +14668,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>30-246</t>
+          <t>30-247</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -14738,7 +14742,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>25-215</t>
+          <t>25-216</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -14812,7 +14816,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>18-179</t>
+          <t>18-180</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -14886,7 +14890,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>21-076</t>
+          <t>21-077</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -14968,7 +14972,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>25-024</t>
+          <t>25-025</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -15052,7 +15056,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>29-251</t>
+          <t>29-252</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -15126,7 +15130,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>17-111</t>
+          <t>17-112</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -15200,7 +15204,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>18-004</t>
+          <t>18-005</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -15274,7 +15278,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>28-102</t>
+          <t>28-103</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -15775,7 +15779,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>28-352</t>
+          <t>28-353</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -15877,7 +15881,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>26-002</t>
+          <t>26-003</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -15979,7 +15983,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>30-193</t>
+          <t>30-194</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -16081,7 +16085,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>27-126</t>
+          <t>27-127</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -16183,7 +16187,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>25-220</t>
+          <t>25-221</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -16285,7 +16289,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>27-061</t>
+          <t>27-062</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -16387,7 +16391,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>20-262</t>
+          <t>20-263</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -16489,7 +16493,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>22-252</t>
+          <t>22-253</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -16591,7 +16595,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>22-044</t>
+          <t>22-045</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -16693,7 +16697,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>23-343</t>
+          <t>23-344</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -16795,7 +16799,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>32-015</t>
+          <t>32-016</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -16897,7 +16901,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>19-335</t>
+          <t>19-336</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -16999,7 +17003,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>33-025</t>
+          <t>33-026</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -17101,7 +17105,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>23-302</t>
+          <t>23-303</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -17203,7 +17207,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>27-140</t>
+          <t>27-141</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -17305,7 +17309,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>33-034</t>
+          <t>33-035</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -17407,7 +17411,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>19-127</t>
+          <t>19-128</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -17509,7 +17513,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>26-069</t>
+          <t>26-070</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -17611,7 +17615,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>37-076</t>
+          <t>37-077</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -17713,7 +17717,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>20-145</t>
+          <t>20-146</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -17815,7 +17819,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>30-246</t>
+          <t>30-247</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -17917,7 +17921,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>25-215</t>
+          <t>25-216</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -18019,7 +18023,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>18-179</t>
+          <t>18-180</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -18121,7 +18125,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>21-076</t>
+          <t>21-077</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -18223,7 +18227,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>25-024</t>
+          <t>25-025</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -18325,7 +18329,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>29-251</t>
+          <t>29-252</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -18427,7 +18431,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>17-111</t>
+          <t>17-112</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -18529,7 +18533,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>18-004</t>
+          <t>18-005</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -18631,7 +18635,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>28-102</t>
+          <t>28-103</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -19111,7 +19115,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>28-352</t>
+          <t>28-353</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -19189,7 +19193,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>26-002</t>
+          <t>26-003</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -19267,7 +19271,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>30-193</t>
+          <t>30-194</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -19345,7 +19349,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>27-126</t>
+          <t>27-127</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -19423,7 +19427,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>25-220</t>
+          <t>25-221</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -19501,7 +19505,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>27-061</t>
+          <t>27-062</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -19579,7 +19583,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>20-262</t>
+          <t>20-263</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -19657,7 +19661,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>22-252</t>
+          <t>22-253</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -19735,7 +19739,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>22-044</t>
+          <t>22-045</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -19813,7 +19817,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>23-343</t>
+          <t>23-344</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -19891,7 +19895,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>32-015</t>
+          <t>32-016</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -19969,7 +19973,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>19-335</t>
+          <t>19-336</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -20047,7 +20051,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>33-025</t>
+          <t>33-026</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -20125,7 +20129,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>23-302</t>
+          <t>23-303</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -20203,7 +20207,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>27-140</t>
+          <t>27-141</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -20281,7 +20285,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>33-034</t>
+          <t>33-035</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -20359,7 +20363,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>19-127</t>
+          <t>19-128</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -20437,7 +20441,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>26-069</t>
+          <t>26-070</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -20515,7 +20519,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>37-076</t>
+          <t>37-077</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -20593,7 +20597,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>20-145</t>
+          <t>20-146</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -20671,7 +20675,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>30-246</t>
+          <t>30-247</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -20749,7 +20753,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>25-215</t>
+          <t>25-216</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -20827,7 +20831,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>18-179</t>
+          <t>18-180</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -20905,7 +20909,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>21-076</t>
+          <t>21-077</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -20983,7 +20987,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>25-024</t>
+          <t>25-025</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -21061,7 +21065,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>29-251</t>
+          <t>29-252</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -21139,7 +21143,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>17-111</t>
+          <t>17-112</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -21217,7 +21221,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>18-004</t>
+          <t>18-005</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -21295,7 +21299,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>28-102</t>
+          <t>28-103</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -21707,7 +21711,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>28-352</t>
+          <t>28-353</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -21788,7 +21792,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>26-002</t>
+          <t>26-003</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -21869,7 +21873,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>30-193</t>
+          <t>30-194</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -21950,7 +21954,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>27-126</t>
+          <t>27-127</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -22031,7 +22035,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>25-220</t>
+          <t>25-221</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -22112,7 +22116,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>27-061</t>
+          <t>27-062</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -22193,7 +22197,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>20-262</t>
+          <t>20-263</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -22274,7 +22278,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>22-252</t>
+          <t>22-253</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -22355,7 +22359,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>22-044</t>
+          <t>22-045</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -22436,7 +22440,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>23-343</t>
+          <t>23-344</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -22517,7 +22521,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>32-015</t>
+          <t>32-016</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -22598,7 +22602,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>19-335</t>
+          <t>19-336</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -22679,7 +22683,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>33-025</t>
+          <t>33-026</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -22760,7 +22764,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>23-302</t>
+          <t>23-303</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -22841,7 +22845,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>27-140</t>
+          <t>27-141</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -22922,7 +22926,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>33-034</t>
+          <t>33-035</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -23003,7 +23007,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>19-127</t>
+          <t>19-128</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -23084,7 +23088,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>26-069</t>
+          <t>26-070</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -23165,7 +23169,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>37-076</t>
+          <t>37-077</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -23246,7 +23250,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>20-145</t>
+          <t>20-146</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -23327,7 +23331,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>30-246</t>
+          <t>30-247</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -23408,7 +23412,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>25-215</t>
+          <t>25-216</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -23489,7 +23493,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>18-179</t>
+          <t>18-180</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -23570,7 +23574,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>21-076</t>
+          <t>21-077</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -23651,7 +23655,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>25-024</t>
+          <t>25-025</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -23732,7 +23736,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>29-251</t>
+          <t>29-252</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -23813,7 +23817,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>17-111</t>
+          <t>17-112</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -23894,7 +23898,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>18-004</t>
+          <t>18-005</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -23975,7 +23979,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>28-102</t>
+          <t>28-103</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -24409,7 +24413,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>28-352</t>
+          <t>28-353</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -24490,7 +24494,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>26-002</t>
+          <t>26-003</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -24571,7 +24575,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>30-193</t>
+          <t>30-194</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -24652,7 +24656,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>27-126</t>
+          <t>27-127</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -24733,7 +24737,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>25-220</t>
+          <t>25-221</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -24814,7 +24818,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>27-061</t>
+          <t>27-062</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -24895,7 +24899,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>20-262</t>
+          <t>20-263</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -24976,7 +24980,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>22-252</t>
+          <t>22-253</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -25057,7 +25061,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>22-044</t>
+          <t>22-045</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -25138,7 +25142,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>23-343</t>
+          <t>23-344</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -25219,7 +25223,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>32-015</t>
+          <t>32-016</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -25300,7 +25304,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>19-335</t>
+          <t>19-336</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -25381,7 +25385,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>33-025</t>
+          <t>33-026</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -25462,7 +25466,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>23-302</t>
+          <t>23-303</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -25543,7 +25547,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>27-140</t>
+          <t>27-141</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -25624,7 +25628,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>33-034</t>
+          <t>33-035</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -25705,7 +25709,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>19-127</t>
+          <t>19-128</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -25786,7 +25790,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>26-069</t>
+          <t>26-070</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -25867,7 +25871,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>37-076</t>
+          <t>37-077</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -25948,7 +25952,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>20-145</t>
+          <t>20-146</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -26029,7 +26033,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>30-246</t>
+          <t>30-247</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -26110,7 +26114,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>25-215</t>
+          <t>25-216</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -26191,7 +26195,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>18-179</t>
+          <t>18-180</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -26272,7 +26276,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>21-076</t>
+          <t>21-077</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -26353,7 +26357,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>25-024</t>
+          <t>25-025</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -26434,7 +26438,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>29-251</t>
+          <t>29-252</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -26515,7 +26519,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>17-111</t>
+          <t>17-112</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -26594,7 +26598,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>18-004</t>
+          <t>18-005</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -26675,7 +26679,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>28-102</t>
+          <t>28-103</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -27132,7 +27136,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>28-352</t>
+          <t>28-353</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -27227,7 +27231,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>26-002</t>
+          <t>26-003</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -27326,7 +27330,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>30-193</t>
+          <t>30-194</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -27425,7 +27429,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>27-126</t>
+          <t>27-127</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -27524,7 +27528,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>25-220</t>
+          <t>25-221</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -27623,7 +27627,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>27-061</t>
+          <t>27-062</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -27722,7 +27726,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>20-262</t>
+          <t>20-263</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -27821,7 +27825,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>22-252</t>
+          <t>22-253</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -27920,7 +27924,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>22-044</t>
+          <t>22-045</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -28019,7 +28023,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>23-343</t>
+          <t>23-344</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -28118,7 +28122,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>32-015</t>
+          <t>32-016</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -28217,7 +28221,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>19-335</t>
+          <t>19-336</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -28316,7 +28320,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>33-025</t>
+          <t>33-026</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -28415,7 +28419,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>23-302</t>
+          <t>23-303</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -28514,7 +28518,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>27-140</t>
+          <t>27-141</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -28613,7 +28617,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>33-034</t>
+          <t>33-035</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -28712,7 +28716,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>19-127</t>
+          <t>19-128</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -28811,7 +28815,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>26-069</t>
+          <t>26-070</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -28910,7 +28914,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>37-076</t>
+          <t>37-077</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -29009,7 +29013,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>20-145</t>
+          <t>20-146</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -29108,7 +29112,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>30-246</t>
+          <t>30-247</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -29203,7 +29207,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>25-215</t>
+          <t>25-216</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -29302,7 +29306,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>18-179</t>
+          <t>18-180</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -29401,7 +29405,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>21-076</t>
+          <t>21-077</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -29500,7 +29504,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>25-024</t>
+          <t>25-025</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -29599,7 +29603,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>29-251</t>
+          <t>29-252</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -29694,7 +29698,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>17-111</t>
+          <t>17-112</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -29793,7 +29797,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>18-004</t>
+          <t>18-005</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -29888,7 +29892,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>28-102</t>
+          <t>28-103</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -30189,10 +30193,14 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 4_level_0</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>Playing Time</t>
         </is>
       </c>
-      <c r="G1" s="1" t="n"/>
       <c r="H1" s="1" t="n"/>
       <c r="I1" s="1" t="n"/>
       <c r="J1" s="1" t="inlineStr">
@@ -30436,7 +30444,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>28-352</t>
+          <t>28-353</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -30553,7 +30561,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>26-002</t>
+          <t>26-003</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -30670,7 +30678,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>30-193</t>
+          <t>30-194</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -30787,7 +30795,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>27-126</t>
+          <t>27-127</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -30904,7 +30912,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>25-220</t>
+          <t>25-221</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -31021,7 +31029,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>27-061</t>
+          <t>27-062</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -31138,7 +31146,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>20-262</t>
+          <t>20-263</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -31255,7 +31263,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>22-252</t>
+          <t>22-253</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -31372,7 +31380,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>22-044</t>
+          <t>22-045</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -31489,7 +31497,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>23-343</t>
+          <t>23-344</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -31606,7 +31614,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>32-015</t>
+          <t>32-016</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -31723,7 +31731,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>19-335</t>
+          <t>19-336</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -31840,7 +31848,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>33-025</t>
+          <t>33-026</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -31957,7 +31965,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>23-302</t>
+          <t>23-303</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -32074,7 +32082,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>27-140</t>
+          <t>27-141</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -32191,7 +32199,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>33-034</t>
+          <t>33-035</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -32308,7 +32316,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>19-127</t>
+          <t>19-128</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -32425,7 +32433,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>26-069</t>
+          <t>26-070</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -32542,7 +32550,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>37-076</t>
+          <t>37-077</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -32659,7 +32667,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>20-145</t>
+          <t>20-146</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -32776,7 +32784,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>30-246</t>
+          <t>30-247</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -32893,7 +32901,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>25-215</t>
+          <t>25-216</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -33010,7 +33018,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>18-179</t>
+          <t>18-180</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -33127,7 +33135,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>21-076</t>
+          <t>21-077</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -33244,7 +33252,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>25-024</t>
+          <t>25-025</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -33361,7 +33369,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>29-251</t>
+          <t>29-252</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -33478,7 +33486,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>17-111</t>
+          <t>17-112</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -33595,7 +33603,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>18-004</t>
+          <t>18-005</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -33712,7 +33720,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>28-102</t>
+          <t>28-103</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -33829,7 +33837,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>26-340</t>
+          <t>26-341</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -33892,7 +33900,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>17-315</t>
+          <t>17-316</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -33955,7 +33963,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>18-001</t>
+          <t>18-002</t>
         </is>
       </c>
       <c r="F35" t="n">
@@ -34018,7 +34026,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>20-025</t>
+          <t>20-026</t>
         </is>
       </c>
       <c r="F36" t="n">
@@ -34081,7 +34089,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>22-020</t>
+          <t>22-021</t>
         </is>
       </c>
       <c r="F37" t="n">
@@ -34144,7 +34152,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>19-029</t>
+          <t>19-030</t>
         </is>
       </c>
       <c r="F38" t="n">
@@ -34207,7 +34215,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>38-339</t>
+          <t>38-340</t>
         </is>
       </c>
       <c r="F39" t="n">
@@ -34270,7 +34278,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>19-045</t>
+          <t>19-046</t>
         </is>
       </c>
       <c r="F40" t="n">
@@ -34333,7 +34341,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>17-042</t>
+          <t>17-043</t>
         </is>
       </c>
       <c r="F41" t="n">
@@ -34396,7 +34404,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>22-120</t>
+          <t>22-121</t>
         </is>
       </c>
       <c r="F42" t="n">
@@ -34459,7 +34467,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>19-111</t>
+          <t>19-112</t>
         </is>
       </c>
       <c r="F43" t="n">
@@ -34522,7 +34530,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>19-059</t>
+          <t>19-060</t>
         </is>
       </c>
       <c r="F44" t="n">
@@ -34777,9 +34785,9 @@
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="Y1:AH1"/>
-    <mergeCell ref="F1:I1"/>
     <mergeCell ref="R1:U1"/>
     <mergeCell ref="J1:Q1"/>
+    <mergeCell ref="G1:I1"/>
     <mergeCell ref="V1:X1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Teams/Manchester Utd_stats.xlsx
+++ b/Teams/Manchester Utd_stats.xlsx
@@ -7,16 +7,16 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Matches" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Standard Stats" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Shooting Stats" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Passing Stats" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Pass Types" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Goal &amp; Shot Creation" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Defensive Actions" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Possession" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Playing Time" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Miscellaneous Stats" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Standard Stats" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Shooting Stats" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Passing Stats" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Pass Types" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Goal &amp; Shot Creation" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Defensive Actions" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Possession" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Playing Time" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Miscellaneous Stats" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet_9" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4282,7 +4282,9 @@
       <c r="N47" t="n">
         <v>47</v>
       </c>
-      <c r="O47" t="inlineStr"/>
+      <c r="O47" t="n">
+        <v>31773</v>
+      </c>
       <c r="P47" t="inlineStr">
         <is>
           <t>Bruno Fernandes</t>
@@ -5018,7 +5020,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>28-356</t>
+          <t>28-359</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -5089,7 +5091,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>26-006</t>
+          <t>26-009</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -5160,7 +5162,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>30-197</t>
+          <t>30-200</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -5231,7 +5233,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>27-130</t>
+          <t>27-133</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -5302,7 +5304,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>25-224</t>
+          <t>25-227</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -5373,7 +5375,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>27-065</t>
+          <t>27-068</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -5444,7 +5446,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>20-266</t>
+          <t>20-269</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -5515,7 +5517,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>22-256</t>
+          <t>22-259</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -5586,7 +5588,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>22-048</t>
+          <t>22-051</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -5657,7 +5659,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>23-347</t>
+          <t>23-350</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -5728,7 +5730,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>32-019</t>
+          <t>32-022</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -5799,7 +5801,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>19-339</t>
+          <t>19-342</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -5870,7 +5872,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>33-029</t>
+          <t>33-032</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -5941,7 +5943,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>23-306</t>
+          <t>23-309</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -6012,7 +6014,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>27-144</t>
+          <t>27-147</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -6083,7 +6085,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>33-038</t>
+          <t>33-041</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -6154,7 +6156,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>19-131</t>
+          <t>19-134</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -6225,7 +6227,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>26-073</t>
+          <t>26-076</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -6296,7 +6298,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>37-080</t>
+          <t>37-083</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -6367,7 +6369,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>20-149</t>
+          <t>20-152</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -6438,7 +6440,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>30-250</t>
+          <t>30-253</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -6509,7 +6511,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>25-219</t>
+          <t>25-222</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -6578,7 +6580,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>18-183</t>
+          <t>18-186</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -6649,7 +6651,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>21-080</t>
+          <t>21-083</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -6720,7 +6722,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>25-028</t>
+          <t>25-031</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -6791,7 +6793,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>29-255</t>
+          <t>29-258</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -6860,7 +6862,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>17-115</t>
+          <t>17-118</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -6931,7 +6933,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>18-008</t>
+          <t>18-011</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -7002,7 +7004,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>28-106</t>
+          <t>28-109</t>
         </is>
       </c>
       <c r="E32" t="n">
@@ -7449,7 +7451,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>28-356</t>
+          <t>28-359</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -7556,7 +7558,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>26-006</t>
+          <t>26-009</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -7663,7 +7665,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>30-197</t>
+          <t>30-200</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -7770,7 +7772,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>27-130</t>
+          <t>27-133</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -7877,7 +7879,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>25-224</t>
+          <t>25-227</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -7984,7 +7986,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>27-065</t>
+          <t>27-068</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -8091,7 +8093,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>20-266</t>
+          <t>20-269</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -8198,7 +8200,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>22-256</t>
+          <t>22-259</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -8305,7 +8307,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>22-048</t>
+          <t>22-051</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -8412,7 +8414,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>23-347</t>
+          <t>23-350</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -8519,7 +8521,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>32-019</t>
+          <t>32-022</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -8626,7 +8628,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>19-339</t>
+          <t>19-342</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -8733,7 +8735,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>33-029</t>
+          <t>33-032</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -8840,7 +8842,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>23-306</t>
+          <t>23-309</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -8947,7 +8949,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>27-144</t>
+          <t>27-147</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -9054,7 +9056,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>33-038</t>
+          <t>33-041</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -9161,7 +9163,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>19-131</t>
+          <t>19-134</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -9268,7 +9270,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>26-073</t>
+          <t>26-076</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -9375,7 +9377,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>37-080</t>
+          <t>37-083</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -9482,7 +9484,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>20-149</t>
+          <t>20-152</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -9589,7 +9591,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>30-250</t>
+          <t>30-253</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -9696,7 +9698,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>25-219</t>
+          <t>25-222</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -9803,7 +9805,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>18-183</t>
+          <t>18-186</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -9910,7 +9912,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>21-080</t>
+          <t>21-083</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -10017,7 +10019,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>25-028</t>
+          <t>25-031</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -10124,7 +10126,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>29-255</t>
+          <t>29-258</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -10231,7 +10233,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>17-115</t>
+          <t>17-118</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -10338,7 +10340,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>18-008</t>
+          <t>18-011</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -10445,7 +10447,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>28-106</t>
+          <t>28-109</t>
         </is>
       </c>
       <c r="E32" t="n">
@@ -10552,7 +10554,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>26-344</t>
+          <t>26-347</t>
         </is>
       </c>
       <c r="E33" t="n">
@@ -10605,7 +10607,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>17-319</t>
+          <t>17-322</t>
         </is>
       </c>
       <c r="E34" t="n">
@@ -10658,7 +10660,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>18-005</t>
+          <t>18-008</t>
         </is>
       </c>
       <c r="E35" t="n">
@@ -10711,7 +10713,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>20-029</t>
+          <t>20-032</t>
         </is>
       </c>
       <c r="E36" t="n">
@@ -10764,7 +10766,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>22-024</t>
+          <t>22-027</t>
         </is>
       </c>
       <c r="E37" t="n">
@@ -10817,7 +10819,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>19-033</t>
+          <t>19-036</t>
         </is>
       </c>
       <c r="E38" t="n">
@@ -10870,7 +10872,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>38-343</t>
+          <t>38-346</t>
         </is>
       </c>
       <c r="E39" t="n">
@@ -10923,7 +10925,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>19-049</t>
+          <t>19-052</t>
         </is>
       </c>
       <c r="E40" t="n">
@@ -10976,7 +10978,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>17-046</t>
+          <t>17-049</t>
         </is>
       </c>
       <c r="E41" t="n">
@@ -11029,7 +11031,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>22-124</t>
+          <t>22-127</t>
         </is>
       </c>
       <c r="E42" t="n">
@@ -11082,7 +11084,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>19-115</t>
+          <t>19-118</t>
         </is>
       </c>
       <c r="E43" t="n">
@@ -11135,7 +11137,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>19-063</t>
+          <t>19-066</t>
         </is>
       </c>
       <c r="E44" t="n">
@@ -11561,7 +11563,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>28-356</t>
+          <t>28-359</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -11625,7 +11627,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>26-006</t>
+          <t>26-009</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -11699,7 +11701,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>30-197</t>
+          <t>30-200</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -11773,7 +11775,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>27-130</t>
+          <t>27-133</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -11847,7 +11849,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>25-224</t>
+          <t>25-227</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -11921,7 +11923,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>27-065</t>
+          <t>27-068</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -11995,7 +11997,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>20-266</t>
+          <t>20-269</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -12069,7 +12071,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>22-256</t>
+          <t>22-259</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -12143,7 +12145,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>22-048</t>
+          <t>22-051</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -12217,7 +12219,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>23-347</t>
+          <t>23-350</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -12291,7 +12293,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>32-019</t>
+          <t>32-022</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -12365,7 +12367,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>19-339</t>
+          <t>19-342</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -12439,7 +12441,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>33-029</t>
+          <t>33-032</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -12513,7 +12515,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>23-306</t>
+          <t>23-309</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -12587,7 +12589,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>27-144</t>
+          <t>27-147</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -12661,7 +12663,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>33-038</t>
+          <t>33-041</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -12733,7 +12735,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>19-131</t>
+          <t>19-134</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -12807,7 +12809,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>26-073</t>
+          <t>26-076</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -12881,7 +12883,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>37-080</t>
+          <t>37-083</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -12953,7 +12955,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>20-149</t>
+          <t>20-152</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -13027,7 +13029,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>30-250</t>
+          <t>30-253</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -13091,7 +13093,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>25-219</t>
+          <t>25-222</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -13155,7 +13157,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>18-183</t>
+          <t>18-186</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -13219,7 +13221,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>21-080</t>
+          <t>21-083</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -13291,7 +13293,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>25-028</t>
+          <t>25-031</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -13365,7 +13367,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>29-255</t>
+          <t>29-258</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -13429,7 +13431,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>17-115</t>
+          <t>17-118</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -13493,7 +13495,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>18-008</t>
+          <t>18-011</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -13557,7 +13559,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>28-106</t>
+          <t>28-109</t>
         </is>
       </c>
       <c r="E32" t="n">
@@ -13981,7 +13983,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>28-356</t>
+          <t>28-359</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -14073,7 +14075,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>26-006</t>
+          <t>26-009</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -14165,7 +14167,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>30-197</t>
+          <t>30-200</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -14257,7 +14259,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>27-130</t>
+          <t>27-133</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -14349,7 +14351,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>25-224</t>
+          <t>25-227</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -14441,7 +14443,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>27-065</t>
+          <t>27-068</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -14533,7 +14535,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>20-266</t>
+          <t>20-269</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -14625,7 +14627,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>22-256</t>
+          <t>22-259</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -14717,7 +14719,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>22-048</t>
+          <t>22-051</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -14809,7 +14811,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>23-347</t>
+          <t>23-350</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -14901,7 +14903,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>32-019</t>
+          <t>32-022</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -14993,7 +14995,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>19-339</t>
+          <t>19-342</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -15085,7 +15087,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>33-029</t>
+          <t>33-032</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -15177,7 +15179,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>23-306</t>
+          <t>23-309</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -15269,7 +15271,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>27-144</t>
+          <t>27-147</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -15361,7 +15363,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>33-038</t>
+          <t>33-041</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -15453,7 +15455,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>19-131</t>
+          <t>19-134</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -15545,7 +15547,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>26-073</t>
+          <t>26-076</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -15637,7 +15639,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>37-080</t>
+          <t>37-083</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -15729,7 +15731,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>20-149</t>
+          <t>20-152</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -15821,7 +15823,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>30-250</t>
+          <t>30-253</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -15913,7 +15915,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>25-219</t>
+          <t>25-222</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -16005,7 +16007,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>18-183</t>
+          <t>18-186</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -16097,7 +16099,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>21-080</t>
+          <t>21-083</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -16189,7 +16191,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>25-028</t>
+          <t>25-031</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -16281,7 +16283,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>29-255</t>
+          <t>29-258</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -16373,7 +16375,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>17-115</t>
+          <t>17-118</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -16465,7 +16467,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>18-008</t>
+          <t>18-011</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -16557,7 +16559,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>28-106</t>
+          <t>28-109</t>
         </is>
       </c>
       <c r="E32" t="n">
@@ -16984,7 +16986,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>28-356</t>
+          <t>28-359</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -17052,7 +17054,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>26-006</t>
+          <t>26-009</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -17120,7 +17122,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>30-197</t>
+          <t>30-200</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -17188,7 +17190,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>27-130</t>
+          <t>27-133</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -17256,7 +17258,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>25-224</t>
+          <t>25-227</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -17324,7 +17326,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>27-065</t>
+          <t>27-068</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -17392,7 +17394,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>20-266</t>
+          <t>20-269</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -17460,7 +17462,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>22-256</t>
+          <t>22-259</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -17528,7 +17530,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>22-048</t>
+          <t>22-051</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -17596,7 +17598,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>23-347</t>
+          <t>23-350</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -17664,7 +17666,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>32-019</t>
+          <t>32-022</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -17732,7 +17734,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>19-339</t>
+          <t>19-342</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -17800,7 +17802,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>33-029</t>
+          <t>33-032</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -17868,7 +17870,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>23-306</t>
+          <t>23-309</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -17936,7 +17938,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>27-144</t>
+          <t>27-147</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -18004,7 +18006,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>33-038</t>
+          <t>33-041</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -18072,7 +18074,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>19-131</t>
+          <t>19-134</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -18140,7 +18142,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>26-073</t>
+          <t>26-076</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -18208,7 +18210,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>37-080</t>
+          <t>37-083</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -18276,7 +18278,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>20-149</t>
+          <t>20-152</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -18344,7 +18346,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>30-250</t>
+          <t>30-253</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -18412,7 +18414,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>25-219</t>
+          <t>25-222</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -18480,7 +18482,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>18-183</t>
+          <t>18-186</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -18548,7 +18550,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>21-080</t>
+          <t>21-083</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -18616,7 +18618,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>25-028</t>
+          <t>25-031</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -18684,7 +18686,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>29-255</t>
+          <t>29-258</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -18752,7 +18754,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>17-115</t>
+          <t>17-118</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -18820,7 +18822,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>18-008</t>
+          <t>18-011</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -18888,7 +18890,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>28-106</t>
+          <t>28-109</t>
         </is>
       </c>
       <c r="E32" t="n">
@@ -19251,7 +19253,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>28-356</t>
+          <t>28-359</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -19322,7 +19324,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>26-006</t>
+          <t>26-009</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -19393,7 +19395,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>30-197</t>
+          <t>30-200</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -19464,7 +19466,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>27-130</t>
+          <t>27-133</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -19535,7 +19537,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>25-224</t>
+          <t>25-227</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -19606,7 +19608,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>27-065</t>
+          <t>27-068</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -19677,7 +19679,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>20-266</t>
+          <t>20-269</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -19748,7 +19750,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>22-256</t>
+          <t>22-259</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -19819,7 +19821,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>22-048</t>
+          <t>22-051</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -19890,7 +19892,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>23-347</t>
+          <t>23-350</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -19961,7 +19963,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>32-019</t>
+          <t>32-022</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -20032,7 +20034,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>19-339</t>
+          <t>19-342</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -20103,7 +20105,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>33-029</t>
+          <t>33-032</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -20174,7 +20176,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>23-306</t>
+          <t>23-309</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -20245,7 +20247,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>27-144</t>
+          <t>27-147</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -20316,7 +20318,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>33-038</t>
+          <t>33-041</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -20387,7 +20389,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>19-131</t>
+          <t>19-134</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -20458,7 +20460,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>26-073</t>
+          <t>26-076</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -20529,7 +20531,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>37-080</t>
+          <t>37-083</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -20600,7 +20602,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>20-149</t>
+          <t>20-152</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -20671,7 +20673,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>30-250</t>
+          <t>30-253</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -20742,7 +20744,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>25-219</t>
+          <t>25-222</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -20813,7 +20815,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>18-183</t>
+          <t>18-186</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -20884,7 +20886,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>21-080</t>
+          <t>21-083</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -20955,7 +20957,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>25-028</t>
+          <t>25-031</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -21026,7 +21028,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>29-255</t>
+          <t>29-258</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -21097,7 +21099,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>17-115</t>
+          <t>17-118</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -21168,7 +21170,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>18-008</t>
+          <t>18-011</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -21239,7 +21241,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>28-106</t>
+          <t>28-109</t>
         </is>
       </c>
       <c r="E32" t="n">
@@ -21608,7 +21610,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>28-356</t>
+          <t>28-359</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -21679,7 +21681,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>26-006</t>
+          <t>26-009</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -21750,7 +21752,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>30-197</t>
+          <t>30-200</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -21821,7 +21823,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>27-130</t>
+          <t>27-133</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -21892,7 +21894,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>25-224</t>
+          <t>25-227</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -21963,7 +21965,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>27-065</t>
+          <t>27-068</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -22034,7 +22036,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>20-266</t>
+          <t>20-269</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -22105,7 +22107,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>22-256</t>
+          <t>22-259</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -22176,7 +22178,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>22-048</t>
+          <t>22-051</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -22247,7 +22249,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>23-347</t>
+          <t>23-350</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -22318,7 +22320,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>32-019</t>
+          <t>32-022</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -22389,7 +22391,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>19-339</t>
+          <t>19-342</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -22460,7 +22462,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>33-029</t>
+          <t>33-032</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -22531,7 +22533,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>23-306</t>
+          <t>23-309</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -22602,7 +22604,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>27-144</t>
+          <t>27-147</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -22673,7 +22675,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>33-038</t>
+          <t>33-041</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -22744,7 +22746,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>19-131</t>
+          <t>19-134</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -22815,7 +22817,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>26-073</t>
+          <t>26-076</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -22886,7 +22888,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>37-080</t>
+          <t>37-083</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -22957,7 +22959,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>20-149</t>
+          <t>20-152</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -23028,7 +23030,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>30-250</t>
+          <t>30-253</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -23099,7 +23101,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>25-219</t>
+          <t>25-222</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -23170,7 +23172,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>18-183</t>
+          <t>18-186</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -23241,7 +23243,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>21-080</t>
+          <t>21-083</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -23312,7 +23314,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>25-028</t>
+          <t>25-031</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -23383,7 +23385,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>29-255</t>
+          <t>29-258</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -23454,7 +23456,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>17-115</t>
+          <t>17-118</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -23523,7 +23525,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>18-008</t>
+          <t>18-011</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -23594,7 +23596,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>28-106</t>
+          <t>28-109</t>
         </is>
       </c>
       <c r="E32" t="n">
@@ -24002,7 +24004,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>28-356</t>
+          <t>28-359</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -24087,7 +24089,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>26-006</t>
+          <t>26-009</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -24176,7 +24178,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>30-197</t>
+          <t>30-200</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -24265,7 +24267,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>27-130</t>
+          <t>27-133</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -24354,7 +24356,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>25-224</t>
+          <t>25-227</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -24443,7 +24445,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>27-065</t>
+          <t>27-068</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -24532,7 +24534,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>20-266</t>
+          <t>20-269</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -24621,7 +24623,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>22-256</t>
+          <t>22-259</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -24710,7 +24712,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>22-048</t>
+          <t>22-051</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -24799,7 +24801,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>23-347</t>
+          <t>23-350</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -24888,7 +24890,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>32-019</t>
+          <t>32-022</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -24977,7 +24979,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>19-339</t>
+          <t>19-342</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -25066,7 +25068,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>33-029</t>
+          <t>33-032</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -25155,7 +25157,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>23-306</t>
+          <t>23-309</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -25244,7 +25246,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>27-144</t>
+          <t>27-147</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -25333,7 +25335,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>33-038</t>
+          <t>33-041</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -25422,7 +25424,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>19-131</t>
+          <t>19-134</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -25511,7 +25513,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>26-073</t>
+          <t>26-076</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -25600,7 +25602,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>37-080</t>
+          <t>37-083</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -25689,7 +25691,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>20-149</t>
+          <t>20-152</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -25778,7 +25780,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>30-250</t>
+          <t>30-253</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -25863,7 +25865,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>25-219</t>
+          <t>25-222</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -25952,7 +25954,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>18-183</t>
+          <t>18-186</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -26041,7 +26043,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>21-080</t>
+          <t>21-083</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -26130,7 +26132,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>25-028</t>
+          <t>25-031</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -26219,7 +26221,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>29-255</t>
+          <t>29-258</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -26304,7 +26306,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>17-115</t>
+          <t>17-118</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -26393,7 +26395,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>18-008</t>
+          <t>18-011</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -26478,7 +26480,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>28-106</t>
+          <t>28-109</t>
         </is>
       </c>
       <c r="E32" t="n">
@@ -26981,7 +26983,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>28-356</t>
+          <t>28-359</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -27088,7 +27090,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>26-006</t>
+          <t>26-009</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -27195,7 +27197,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>30-197</t>
+          <t>30-200</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -27302,7 +27304,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>27-130</t>
+          <t>27-133</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -27409,7 +27411,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>25-224</t>
+          <t>25-227</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -27516,7 +27518,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>27-065</t>
+          <t>27-068</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -27623,7 +27625,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>20-266</t>
+          <t>20-269</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -27730,7 +27732,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>22-256</t>
+          <t>22-259</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -27837,7 +27839,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>22-048</t>
+          <t>22-051</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -27944,7 +27946,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>23-347</t>
+          <t>23-350</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -28051,7 +28053,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>32-019</t>
+          <t>32-022</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -28158,7 +28160,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>19-339</t>
+          <t>19-342</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -28265,7 +28267,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>33-029</t>
+          <t>33-032</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -28372,7 +28374,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>23-306</t>
+          <t>23-309</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -28479,7 +28481,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>27-144</t>
+          <t>27-147</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -28586,7 +28588,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>33-038</t>
+          <t>33-041</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -28693,7 +28695,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>19-131</t>
+          <t>19-134</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -28800,7 +28802,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>26-073</t>
+          <t>26-076</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -28907,7 +28909,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>37-080</t>
+          <t>37-083</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -29014,7 +29016,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>20-149</t>
+          <t>20-152</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -29121,7 +29123,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>30-250</t>
+          <t>30-253</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -29228,7 +29230,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>25-219</t>
+          <t>25-222</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -29335,7 +29337,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>18-183</t>
+          <t>18-186</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -29442,7 +29444,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>21-080</t>
+          <t>21-083</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -29549,7 +29551,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>25-028</t>
+          <t>25-031</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -29656,7 +29658,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>29-255</t>
+          <t>29-258</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -29763,7 +29765,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>17-115</t>
+          <t>17-118</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -29870,7 +29872,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>18-008</t>
+          <t>18-011</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -29977,7 +29979,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>28-106</t>
+          <t>28-109</t>
         </is>
       </c>
       <c r="E32" t="n">
@@ -30084,7 +30086,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>26-344</t>
+          <t>26-347</t>
         </is>
       </c>
       <c r="E33" t="n">
@@ -30137,7 +30139,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>17-319</t>
+          <t>17-322</t>
         </is>
       </c>
       <c r="E34" t="n">
@@ -30190,7 +30192,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>18-005</t>
+          <t>18-008</t>
         </is>
       </c>
       <c r="E35" t="n">
@@ -30243,7 +30245,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>20-029</t>
+          <t>20-032</t>
         </is>
       </c>
       <c r="E36" t="n">
@@ -30296,7 +30298,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>22-024</t>
+          <t>22-027</t>
         </is>
       </c>
       <c r="E37" t="n">
@@ -30349,7 +30351,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>19-033</t>
+          <t>19-036</t>
         </is>
       </c>
       <c r="E38" t="n">
@@ -30402,7 +30404,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>38-343</t>
+          <t>38-346</t>
         </is>
       </c>
       <c r="E39" t="n">
@@ -30455,7 +30457,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>19-049</t>
+          <t>19-052</t>
         </is>
       </c>
       <c r="E40" t="n">
@@ -30508,7 +30510,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>17-046</t>
+          <t>17-049</t>
         </is>
       </c>
       <c r="E41" t="n">
@@ -30561,7 +30563,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>22-124</t>
+          <t>22-127</t>
         </is>
       </c>
       <c r="E42" t="n">
@@ -30614,7 +30616,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>19-115</t>
+          <t>19-118</t>
         </is>
       </c>
       <c r="E43" t="n">
@@ -30667,7 +30669,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>19-063</t>
+          <t>19-066</t>
         </is>
       </c>
       <c r="E44" t="n">
